--- a/files/ListaLibros.xlsx
+++ b/files/ListaLibros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ClaseBictia\FullStack\Week 4\Libreria\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E236795-1125-4E1B-B197-C15B0E5F8CA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4879453-F32E-4E2D-BE14-7B18A28F5B63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF09CC65-5B39-47BF-A46C-D41E0DA8DD1E}"/>
+    <workbookView xWindow="11445" yWindow="2505" windowWidth="11895" windowHeight="7875" xr2:uid="{BF09CC65-5B39-47BF-A46C-D41E0DA8DD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -856,9 +856,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -879,6 +876,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1439,35 +1439,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035CEC4E-5C2E-4F7E-BADE-58F4BD9CCBB6}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="45"/>
-    <col min="3" max="3" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="45"/>
-    <col min="5" max="5" width="11.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="49"/>
-    <col min="8" max="8" width="11.42578125" style="45"/>
-    <col min="9" max="9" width="11.42578125" style="50"/>
-    <col min="10" max="10" width="11.42578125" style="51"/>
-    <col min="11" max="16384" width="11.42578125" style="45"/>
+    <col min="1" max="2" width="0" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="44" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="44"/>
+    <col min="5" max="5" width="11.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="48"/>
+    <col min="8" max="8" width="11.42578125" style="44"/>
+    <col min="9" max="9" width="11.42578125" style="49"/>
+    <col min="10" max="10" width="11.42578125" style="50"/>
+    <col min="11" max="16384" width="11.42578125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="32" t="s">
@@ -1509,10 +1509,10 @@
       <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>109</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1542,10 +1542,10 @@
       <c r="E3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>113</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1749,10 +1749,10 @@
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>95</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -1764,7 +1764,7 @@
       <c r="J9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="46" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1823,13 +1823,13 @@
       <c r="F11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>360</v>
       </c>
       <c r="J11" s="8">
@@ -1924,10 +1924,10 @@
       <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="45" t="s">
         <v>91</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -1957,10 +1957,10 @@
       <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -2208,7 +2208,7 @@
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="51" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
